--- a/user-data/intl-flows-donors/intl-flows-donors.xlsx
+++ b/user-data/intl-flows-donors/intl-flows-donors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>id</t>
   </si>
@@ -869,9 +869,6 @@
     <t>Source: Development Initiatives calculations based on numerous sources. Development finance institutions: Development Initiatives calculations based on a review of DFIsï¿½ annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD and national sources (see Foreign direct investment in developing countries indicator). Disbursements and capital and interest repayments on official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1257,12 +1254,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1272,22 +1269,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14">
@@ -1303,11 +1300,6 @@
     <row r="16">
       <c r="A16" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/intl-flows-donors/intl-flows-donors.xlsx
+++ b/user-data/intl-flows-donors/intl-flows-donors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>id</t>
   </si>
@@ -653,10 +653,10 @@
     <t>ssc-in</t>
   </si>
   <si>
-    <t>SSC</t>
+    <t>Dev coop</t>
   </si>
   <si>
-    <t>South-south cooperation</t>
+    <t>Development cooperation</t>
   </si>
   <si>
     <t>grey-mid</t>
@@ -671,7 +671,7 @@
     <t>ssc-out</t>
   </si>
   <si>
-    <t>Estimates of south-south cooperation</t>
+    <t>Estimates of development cooperation</t>
   </si>
   <si>
     <t>Development Initiatives calculations based on national sources</t>
@@ -860,13 +860,13 @@
     <t>Name: intl-flows-donors</t>
   </si>
   <si>
-    <t>Description: Estimates of resources flowing to and from developing countries</t>
+    <t>Description: International resource flows to and from developed countries</t>
   </si>
   <si>
     <t>Units of measure: constant 2012 US$ millions</t>
   </si>
   <si>
-    <t>Source: Development Initiatives calculations based on numerous sources. Development finance institutions: Development Initiatives calculations based on a review of DFIsï¿½ annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD and national sources (see Foreign direct investment in developing countries indicator). Disbursements and capital and interest repayments on official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>
+    <t>Source: Development Initiatives calculations based on numerous sources. Development finance institutions: Development Initiatives calculations based on a review of DFIs' annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD and national sources (see Foreign direct investment in developing countries indicator). Disbursements and capital and interest repayments on official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>
   </si>
   <si>
     <t/>
@@ -884,7 +884,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1302,6 +1305,11 @@
         <v>291</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/intl-flows-donors/intl-flows-donors.xlsx
+++ b/user-data/intl-flows-donors/intl-flows-donors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="2899">
   <si>
     <t>id</t>
   </si>
@@ -338,7 +338,7 @@
     <t>oda-interest</t>
   </si>
   <si>
-    <t>oda</t>
+    <t>oda-out</t>
   </si>
   <si>
     <t>2654330000</t>
@@ -494,7 +494,7 @@
     <t>private</t>
   </si>
   <si>
-    <t>remittances</t>
+    <t>remittances-out</t>
   </si>
   <si>
     <t>8598.559103</t>
@@ -566,7 +566,7 @@
     <t>234.1912746</t>
   </si>
   <si>
-    <t>dfis</t>
+    <t>dfis-out</t>
   </si>
   <si>
     <t>na</t>
@@ -8348,9 +8348,6 @@
     <t>short.name</t>
   </si>
   <si>
-    <t>oda-out</t>
-  </si>
-  <si>
     <t>ODA</t>
   </si>
   <si>
@@ -8402,9 +8399,6 @@
     <t>Receipt of interest payments on OOF loans</t>
   </si>
   <si>
-    <t>dfis-out</t>
-  </si>
-  <si>
     <t>DFIs</t>
   </si>
   <si>
@@ -8631,9 +8625,6 @@
   </si>
   <si>
     <t>remittances-in</t>
-  </si>
-  <si>
-    <t>remittances-out</t>
   </si>
   <si>
     <t>trade-mispricing-out</t>
@@ -9054,87 +9045,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
     </row>
   </sheetData>
@@ -109356,10 +109347,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
         <v>2777</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2778</v>
       </c>
       <c r="C2" t="n">
         <v> 1</v>
@@ -109368,7 +109359,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -109378,19 +109369,19 @@
         <v> 1</v>
       </c>
       <c r="I2" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="J2" t="s">
         <v>2765</v>
       </c>
       <c r="K2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="L2" t="s">
         <v>2780</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>2781</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="3">
@@ -109398,7 +109389,7 @@
         <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C3" t="n">
         <v> 1</v>
@@ -109407,7 +109398,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -109417,19 +109408,19 @@
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="J3" t="s">
         <v>2765</v>
       </c>
       <c r="K3" t="s">
+        <v>2783</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2780</v>
+      </c>
+      <c r="M3" t="s">
         <v>2784</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2781</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="4">
@@ -109437,7 +109428,7 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C4" t="n">
         <v> 1</v>
@@ -109446,7 +109437,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -109456,19 +109447,19 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="J4" t="s">
         <v>2765</v>
       </c>
       <c r="K4" t="s">
+        <v>2786</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2780</v>
+      </c>
+      <c r="M4" t="s">
         <v>2787</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2781</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2788</v>
       </c>
     </row>
     <row r="5">
@@ -109476,7 +109467,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C5" t="n">
         <v> 2</v>
@@ -109485,7 +109476,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -109495,19 +109486,19 @@
         <v> 1</v>
       </c>
       <c r="I5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="J5" t="s">
         <v>2759</v>
       </c>
       <c r="K5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="L5" t="s">
+        <v>2780</v>
+      </c>
+      <c r="M5" t="s">
         <v>2781</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="6">
@@ -109515,7 +109506,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C6" t="n">
         <v> 2</v>
@@ -109524,7 +109515,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -109534,19 +109525,19 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="J6" t="s">
         <v>2759</v>
       </c>
       <c r="K6" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="L6" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="M6" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="7">
@@ -109554,7 +109545,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C7" t="n">
         <v> 2</v>
@@ -109563,7 +109554,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -109573,27 +109564,27 @@
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="J7" t="s">
         <v>2759</v>
       </c>
       <c r="K7" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="L7" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="M7" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2795</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="C8" t="n">
         <v> 3</v>
@@ -109602,7 +109593,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -109612,27 +109603,27 @@
         <v> 1</v>
       </c>
       <c r="I8" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="J8" t="s">
         <v>2769</v>
       </c>
       <c r="K8" t="s">
+        <v>2796</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2797</v>
+      </c>
+      <c r="M8" t="s">
         <v>2798</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2799</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="B9" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="C9" t="n">
         <v> 4</v>
@@ -109641,7 +109632,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F9" t="s">
         <v>109</v>
@@ -109651,27 +109642,27 @@
         <v> 1</v>
       </c>
       <c r="I9" t="s">
+        <v>2801</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2802</v>
+      </c>
+      <c r="K9" t="s">
         <v>2803</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>2804</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>2805</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2806</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2807</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="B10" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="C10" t="n">
         <v> 5</v>
@@ -109680,7 +109671,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F10" t="s">
         <v>158</v>
@@ -109690,27 +109681,27 @@
         <v> 1</v>
       </c>
       <c r="I10" t="s">
+        <v>2808</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2809</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2808</v>
+      </c>
+      <c r="L10" t="s">
         <v>2810</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>2811</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2810</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2812</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="B11" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C11" t="n">
         <v> 1</v>
@@ -109719,7 +109710,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -109729,25 +109720,25 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="J11" t="s">
         <v>2765</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="s">
+        <v>2780</v>
+      </c>
+      <c r="M11" t="s">
         <v>2781</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="B12" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C12" t="n">
         <v> 1</v>
@@ -109756,7 +109747,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -109766,25 +109757,25 @@
         <v> 1</v>
       </c>
       <c r="I12" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="J12" t="s">
         <v>2765</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="M12" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="B13" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C13" t="n">
         <v> 1</v>
@@ -109793,7 +109784,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -109803,25 +109794,25 @@
         <v> 2</v>
       </c>
       <c r="I13" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="J13" t="s">
         <v>2765</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="M13" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="B14" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C14" t="n">
         <v> 2</v>
@@ -109830,7 +109821,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -109840,25 +109831,25 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="J14" t="s">
         <v>2759</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
+        <v>2780</v>
+      </c>
+      <c r="M14" t="s">
         <v>2781</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="B15" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C15" t="n">
         <v> 2</v>
@@ -109867,7 +109858,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -109877,25 +109868,25 @@
         <v> 1</v>
       </c>
       <c r="I15" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="J15" t="s">
         <v>2759</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="M15" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="B16" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C16" t="n">
         <v> 2</v>
@@ -109904,7 +109895,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -109914,25 +109905,25 @@
         <v> 2</v>
       </c>
       <c r="I16" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="J16" t="s">
         <v>2759</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="M16" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="B17" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="C17" t="n">
         <v> 3</v>
@@ -109941,7 +109932,7 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -109951,17 +109942,17 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="J17" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="M17" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="18">
@@ -109969,7 +109960,7 @@
         <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="C18" t="n">
         <v> 3</v>
@@ -109978,7 +109969,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -109988,27 +109979,27 @@
         <v> 1</v>
       </c>
       <c r="I18" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="J18" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="K18" t="s">
+        <v>2825</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M18" t="s">
         <v>2827</v>
-      </c>
-      <c r="L18" t="s">
-        <v>2828</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="B19" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C19" t="n">
         <v> 4</v>
@@ -110017,7 +110008,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -110027,27 +110018,27 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
+        <v>2830</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K19" t="s">
         <v>2832</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>2833</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>2834</v>
-      </c>
-      <c r="L19" t="s">
-        <v>2835</v>
-      </c>
-      <c r="M19" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="B20" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="C20" t="n">
         <v> 5</v>
@@ -110056,7 +110047,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F20" t="s">
         <v>109</v>
@@ -110066,27 +110057,27 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
+        <v>2837</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2802</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2838</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2804</v>
+      </c>
+      <c r="M20" t="s">
         <v>2839</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2804</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2840</v>
-      </c>
-      <c r="L20" t="s">
-        <v>2806</v>
-      </c>
-      <c r="M20" t="s">
-        <v>2841</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="B21" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="C21" t="n">
         <v> 5</v>
@@ -110095,7 +110086,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
@@ -110105,19 +110096,19 @@
         <v> 2</v>
       </c>
       <c r="I21" t="s">
+        <v>2841</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2802</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2842</v>
+      </c>
+      <c r="L21" t="s">
         <v>2843</v>
       </c>
-      <c r="J21" t="s">
-        <v>2804</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>2844</v>
-      </c>
-      <c r="L21" t="s">
-        <v>2845</v>
-      </c>
-      <c r="M21" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row r="22">
@@ -110125,7 +110116,7 @@
         <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="C22" t="n">
         <v> 5</v>
@@ -110134,7 +110125,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F22" t="s">
         <v>109</v>
@@ -110144,25 +110135,25 @@
         <v> 3</v>
       </c>
       <c r="I22" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="J22" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="K22" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="B23" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="C23" t="n">
         <v> 6</v>
@@ -110171,7 +110162,7 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F23" t="s">
         <v>109</v>
@@ -110181,23 +110172,23 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="J23" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B24" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C24" t="n">
         <v> 7</v>
@@ -110206,7 +110197,7 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -110216,27 +110207,27 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
+        <v>2852</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2853</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2833</v>
+      </c>
+      <c r="M24" t="s">
         <v>2854</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2833</v>
-      </c>
-      <c r="K24" t="s">
-        <v>2855</v>
-      </c>
-      <c r="L24" t="s">
-        <v>2835</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="B25" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C25" t="n">
         <v> 7</v>
@@ -110245,7 +110236,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F25" t="s">
         <v>109</v>
@@ -110255,27 +110246,27 @@
         <v> 1</v>
       </c>
       <c r="I25" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="J25" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2856</v>
+      </c>
+      <c r="L25" t="s">
         <v>2833</v>
       </c>
-      <c r="K25" t="s">
-        <v>2858</v>
-      </c>
-      <c r="L25" t="s">
-        <v>2835</v>
-      </c>
       <c r="M25" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="B26" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C26" t="n">
         <v> 7</v>
@@ -110284,7 +110275,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F26" t="s">
         <v>109</v>
@@ -110294,27 +110285,27 @@
         <v> 2</v>
       </c>
       <c r="I26" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="J26" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L26" t="s">
         <v>2833</v>
       </c>
-      <c r="K26" t="s">
-        <v>2861</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2835</v>
-      </c>
       <c r="M26" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="B27" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="C27" t="n">
         <v> 8</v>
@@ -110323,7 +110314,7 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F27" t="s">
         <v>109</v>
@@ -110333,27 +110324,27 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="J27" t="s">
         <v>2762</v>
       </c>
       <c r="K27" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="L27" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="M27" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="B28" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="C28" t="n">
         <v> 8</v>
@@ -110362,7 +110353,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F28" t="s">
         <v>109</v>
@@ -110372,25 +110363,25 @@
         <v> 1</v>
       </c>
       <c r="I28" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="J28" t="s">
         <v>2762</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="M28" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="B29" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="C29" t="n">
         <v> 9</v>
@@ -110399,7 +110390,7 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F29" t="s">
         <v>158</v>
@@ -110409,25 +110400,25 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
+        <v>2807</v>
+      </c>
+      <c r="J29" t="s">
         <v>2809</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2811</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="M29" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2872</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="C30" t="n">
         <v> 9</v>
@@ -110436,7 +110427,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -110446,25 +110437,25 @@
         <v> 1</v>
       </c>
       <c r="I30" t="s">
+        <v>2807</v>
+      </c>
+      <c r="J30" t="s">
         <v>2809</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2811</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="M30" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="B31" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="C31" t="n">
         <v>10</v>
@@ -110473,7 +110464,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F31" t="s">
         <v>2766</v>
@@ -110483,22 +110474,22 @@
         <v> 1</v>
       </c>
       <c r="I31" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="J31" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="M31" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="B32" t="s">
         <v>2767</v>
@@ -110510,7 +110501,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F32" t="s">
         <v>2766</v>
@@ -110520,34 +110511,34 @@
         <v> 2</v>
       </c>
       <c r="I32" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2877</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2878</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2873</v>
+      </c>
+      <c r="M32" t="s">
         <v>2879</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2880</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2881</v>
-      </c>
-      <c r="L32" t="s">
-        <v>2876</v>
-      </c>
-      <c r="M32" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="B33" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -110555,34 +110546,34 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="J33" t="s">
         <v>2769</v>
       </c>
       <c r="K33" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="L33" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="M33" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="B34" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F34" t="s">
         <v>158</v>
@@ -110590,17 +110581,17 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="J34" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="M34" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/intl-flows-donors/intl-flows-donors.xlsx
+++ b/user-data/intl-flows-donors/intl-flows-donors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>id</t>
   </si>
@@ -443,7 +443,7 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>US</t>
@@ -656,6 +656,9 @@
     <t>Development cooperation</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
     <t>grey-mid</t>
   </si>
   <si>
@@ -866,7 +869,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1200,87 +1203,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -102099,22 +102102,22 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
         <v>212</v>
@@ -102136,27 +102139,27 @@
         <v> 1</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" t="n">
         <v> 4</v>
@@ -102175,16 +102178,16 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s">
         <v>191</v>
@@ -102192,7 +102195,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
         <v>193</v>
@@ -102214,24 +102217,24 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J20" t="s">
         <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s">
         <v>197</v>
       </c>
       <c r="M20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>193</v>
@@ -102253,19 +102256,19 @@
         <v> 2</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
         <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
@@ -102292,25 +102295,25 @@
         <v> 3</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
         <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" t="n">
         <v> 6</v>
@@ -102329,23 +102332,23 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" t="n">
         <v> 7</v>
@@ -102364,16 +102367,16 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s">
         <v>191</v>
@@ -102381,10 +102384,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C25" t="n">
         <v> 7</v>
@@ -102403,16 +102406,16 @@
         <v> 1</v>
       </c>
       <c r="I25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s">
         <v>177</v>
@@ -102420,10 +102423,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C26" t="n">
         <v> 7</v>
@@ -102442,16 +102445,16 @@
         <v> 2</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s">
         <v>180</v>
@@ -102459,10 +102462,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" t="n">
         <v> 8</v>
@@ -102481,27 +102484,27 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
         <v>155</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" t="n">
         <v> 8</v>
@@ -102520,14 +102523,14 @@
         <v> 1</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
         <v>155</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s">
         <v>180</v>
@@ -102535,7 +102538,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
         <v>199</v>
@@ -102567,12 +102570,12 @@
         <v>202</v>
       </c>
       <c r="M29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s">
         <v>199</v>
@@ -102604,15 +102607,15 @@
         <v>202</v>
       </c>
       <c r="M30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C31" t="n">
         <v>10</v>
@@ -102631,22 +102634,22 @@
         <v> 1</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
         <v>160</v>
@@ -102668,24 +102671,24 @@
         <v> 2</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
         <v>187</v>
@@ -102709,7 +102712,7 @@
         <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s">
         <v>190</v>
@@ -102720,10 +102723,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
@@ -102738,17 +102741,17 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="s">
         <v>190</v>
       </c>
       <c r="M34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
